--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ArianaGrande</t>
+          <t>JackNickelson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>ShaquilleO'Neal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,10 +496,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JackNickelson</t>
+          <t>Rihanna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ArianaGrande</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,19 +448,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JackNickelson</t>
+          <t>EloneMusk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ShaquilleO'Neal</t>
+          <t>JackNickelson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EloneMusk</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>ArianaGrande</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>ShaquilleO'Neal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ArianaGrande</t>
+          <t>Rihanna</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -453,14 +453,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JackNickelson</t>
+          <t>ShaquilleO'Neal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>JackNickelson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,19 +484,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ArianaGrande</t>
+          <t>Rihanna</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Present</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ShaquilleO'Neal</t>
+          <t>Drake</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>ArianaGrande</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EloneMusk</t>
+          <t>Zahery</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ShaquilleO'Neal</t>
+          <t>Seyedain</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JackNickelson</t>
+          <t>Zanjirany</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,19 +484,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rihanna</t>
+          <t>Rahimi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>Taherkho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ArianaGrande</t>
+          <t>Mohammadi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,17 +448,31 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>First_Registration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Registration</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zahery</t>
+          <t>Mohammadi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" s="2" t="n">
+        <v>45687.02026113426</v>
       </c>
     </row>
     <row r="3">
@@ -465,8 +483,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45687.01570137731</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45687.02054011522</v>
       </c>
     </row>
     <row r="4">
@@ -480,11 +504,15 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="2" t="n">
+        <v>45687.02026113426</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rahimi</t>
+          <t>Taherkho</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -492,29 +520,39 @@
           <t>Absent</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Taherkho</t>
+          <t>Zahery</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" s="2" t="n">
+        <v>45687.02091187073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mohammadi</t>
+          <t>Rahimi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" s="2" t="n">
+        <v>45687.02025456019</v>
       </c>
     </row>
   </sheetData>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -462,7 +462,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mohammadi</t>
+          <t>Rahimi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,9 +471,7 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" s="2" t="n">
-        <v>45687.02026113426</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,16 +485,16 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45687.01570137731</v>
+        <v>45687.07540560545</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45687.02054011522</v>
+        <v>45687.07544356427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zanjirany</t>
+          <t>Zahery</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -505,14 +503,12 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" s="2" t="n">
-        <v>45687.02026113426</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Taherkho</t>
+          <t>Mohammadi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -526,23 +522,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zahery</t>
+          <t>Taherkho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" s="2" t="n">
-        <v>45687.02091187073</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rahimi</t>
+          <t>Zanjirany</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,9 +545,7 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" s="2" t="n">
-        <v>45687.02025456019</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -462,23 +462,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>davary</t>
+          <t>hosseinoff</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45711.18023001547</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45711.18023001547</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +502,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>karimi</t>
+          <t>kohandani</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,7 +524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zahery</t>
+          <t>aghaseyedhashem</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,7 +546,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amirhosseiny</t>
+          <t>mosayebi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -572,7 +568,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mohammdy(amirhossein)</t>
+          <t>alipor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -616,7 +612,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zanjirany</t>
+          <t>shafiee</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,7 +634,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mosadeq</t>
+          <t>raeesmirzaye(hossein)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -660,7 +656,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mosolo</t>
+          <t>jabary</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -682,7 +678,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ghadiry</t>
+          <t>zahery</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -704,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>parsanazar</t>
+          <t>rahimi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -726,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>yazdi</t>
+          <t>akbary</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -770,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>alipor</t>
+          <t>karimi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -792,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>shafiee</t>
+          <t>jahangir</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -814,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>garagozlw</t>
+          <t>mohammdy(amirhossein)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -836,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mohammadi(mohammad hossein)</t>
+          <t>Zanjirany</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -858,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hosseinoff</t>
+          <t>mosadeq</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -880,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jahangir</t>
+          <t>amirhosseiny</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -902,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>raeesmirzaye(mostafa)</t>
+          <t>Mohammadi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -924,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>yaghobi</t>
+          <t>ghadiry</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -946,29 +942,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kohandani</t>
+          <t>khara</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45711.18023582982</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45711.18027430547</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>raeesmirzaye(hossein)</t>
+          <t>davary</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -990,25 +982,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>khara</t>
+          <t>yazdi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Present</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45709.07363187008</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>45709.0736640813</v>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jabary</t>
+          <t>mosolo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1030,7 +1026,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rangbar</t>
+          <t>raeesmirzaye(mostafa)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1052,7 +1048,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mosayebi</t>
+          <t>garagozlw</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1074,7 +1070,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aghaseyedhashem</t>
+          <t>parsanazar</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1096,7 +1092,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nabati</t>
+          <t>raeesian</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1118,7 +1114,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>akbary</t>
+          <t>nabati</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1140,7 +1136,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>raeesian</t>
+          <t>rangbar</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1162,7 +1158,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mohammadi</t>
+          <t>mohammadi(mohammad hossein)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1184,7 +1180,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rahimi</t>
+          <t>yaghobi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
